--- a/tag-priority.xlsx
+++ b/tag-priority.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2DD77ED-5C5B-47B7-8D43-4C759A00D5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{691974E9-5957-4E95-BE44-0CFEAF672E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,26 +31,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>[FRAME3] [DAILY]</t>
-  </si>
-  <si>
-    <t>[FRAME2] [DAILY]</t>
-  </si>
-  <si>
-    <t>[FRAME3] [WEEKLY]</t>
-  </si>
-  <si>
-    <t>[FRAME2] [WEEKLY]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>[FRAME2]</t>
+  </si>
+  <si>
+    <t>[FRAME3]</t>
+  </si>
+  <si>
+    <t>[FRAME1]</t>
+  </si>
+  <si>
+    <t>[FAIL]</t>
+  </si>
+  <si>
+    <t>[MAC]</t>
+  </si>
+  <si>
+    <t>[CK]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -78,8 +98,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,35 +440,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
